--- a/questionnaires/RBDstandardized_questionnaireMDDW_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireMDDW_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C41F777-B7A5-409B-90B0-447B70BC6A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2B665-1269-4BF2-9E14-FA03FC831EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45570" yWindow="-1485" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -279,9 +279,6 @@
     <t>Age en années révolues de ${MDDW_resp_age}</t>
   </si>
   <si>
-    <t>Quel est le nombre total de membres féminins âgés de 18 à 59 ans dans votre ménage ?</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>Francais</t>
+  </si>
+  <si>
+    <t>Quel est le nombre total de membres féminins âgés de 15 à 49 ans dans votre ménage ?</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1580,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1649,11 +1649,11 @@
         <v>71</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="66"/>
@@ -1700,7 +1700,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>78</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="70" t="s">
         <v>58</v>
@@ -1769,10 +1769,10 @@
         <v>60</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,13 +1783,13 @@
         <v>24</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,13 +1800,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,13 +1817,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="72"/>
       <c r="J13" s="69"/>
@@ -1836,13 +1836,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="69"/>
       <c r="J14" s="72"/>
@@ -1855,13 +1855,13 @@
         <v>37</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="69"/>
       <c r="J15" s="72"/>
@@ -1874,13 +1874,13 @@
         <v>31</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="67" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,13 +1891,13 @@
         <v>32</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="72"/>
       <c r="J17" s="69"/>
@@ -1913,10 +1913,10 @@
         <v>47</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="69"/>
       <c r="J18" s="72"/>
@@ -1929,13 +1929,13 @@
         <v>33</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="69"/>
       <c r="J19" s="72"/>
@@ -1948,13 +1948,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="71"/>
     </row>
@@ -1966,13 +1966,13 @@
         <v>27</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="71"/>
     </row>
@@ -1984,13 +1984,13 @@
         <v>29</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,13 +2001,13 @@
         <v>28</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2018,13 +2018,13 @@
         <v>30</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2035,13 +2035,13 @@
         <v>38</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="72"/>
       <c r="J25" s="69"/>
@@ -2054,13 +2054,13 @@
         <v>39</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="69"/>
       <c r="J26" s="72"/>
@@ -2073,13 +2073,13 @@
         <v>44</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="69"/>
       <c r="J27" s="72"/>
@@ -2111,7 +2111,7 @@
         <v>61</v>
       </c>
       <c r="E29" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="72"/>
       <c r="J29" s="72"/>
@@ -2127,7 +2127,7 @@
         <v>62</v>
       </c>
       <c r="E30" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="71"/>
       <c r="J30" s="71"/>
@@ -2143,7 +2143,7 @@
         <v>63</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" s="71"/>
     </row>
@@ -2158,7 +2158,7 @@
         <v>64</v>
       </c>
       <c r="E32" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J32" s="71"/>
     </row>
@@ -2173,7 +2173,7 @@
         <v>65</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="71"/>
       <c r="J33" s="71"/>
@@ -2189,7 +2189,7 @@
         <v>66</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" s="71"/>
     </row>
@@ -5271,7 +5271,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5293,6 +5293,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5509,22 +5524,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5541,29 +5566,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/questionnaires/RBDstandardized_questionnaireMDDW_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireMDDW_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2B665-1269-4BF2-9E14-FA03FC831EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E4E8D-2077-48EF-B03D-A6ABAB333BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>type</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>begin group</t>
-  </si>
-  <si>
-    <t>HHSize1549F</t>
   </si>
   <si>
     <t>noteoptcategories</t>
@@ -501,15 +498,12 @@
   <si>
     <t>Francais</t>
   </si>
-  <si>
-    <t>Quel est le nombre total de membres féminins âgés de 15 à 49 ans dans votre ménage ?</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,15 +711,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF292929"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +739,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -862,7 +855,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1011,9 +1004,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,7 +1031,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1070,6 +1059,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -1575,12 +1571,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N269"/>
+  <dimension ref="A1:N267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1597,740 +1593,714 @@
     <col min="12" max="16384" width="24.5703125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="78" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:14" s="76" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="77" t="s">
+      <c r="N1" s="75" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:14" s="79" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B3" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="J4" s="62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="L5" s="66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="J11" s="67"/>
+    </row>
+    <row r="12" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="J12" s="70"/>
+    </row>
+    <row r="13" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="J13" s="70"/>
+    </row>
+    <row r="14" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="66" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="69"/>
+    </row>
+    <row r="19" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="69"/>
+    </row>
+    <row r="20" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="J23" s="67"/>
+    </row>
+    <row r="24" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="67"/>
+      <c r="J25" s="70"/>
+    </row>
+    <row r="26" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="57"/>
-    </row>
-    <row r="3" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="J6" s="63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="L7" s="67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="64" t="s">
+      <c r="C26" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="J26" s="67"/>
+    </row>
+    <row r="27" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="F27" s="70"/>
+      <c r="J27" s="70"/>
+    </row>
+    <row r="28" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="B28" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="69"/>
+      <c r="J28" s="69"/>
+    </row>
+    <row r="29" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="B29" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="69"/>
+    </row>
+    <row r="30" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="72"/>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="B30" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="69"/>
+    </row>
+    <row r="31" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="J14" s="72"/>
-    </row>
-    <row r="15" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="B31" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="69"/>
+      <c r="J31" s="69"/>
+    </row>
+    <row r="32" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="J15" s="72"/>
-    </row>
-    <row r="16" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="67" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="72"/>
-      <c r="J17" s="69"/>
-    </row>
-    <row r="18" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="69"/>
-      <c r="J18" s="72"/>
-    </row>
-    <row r="19" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="69"/>
-      <c r="J19" s="72"/>
-    </row>
-    <row r="20" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="71"/>
-    </row>
-    <row r="21" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="71"/>
-    </row>
-    <row r="22" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="72"/>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="69"/>
-      <c r="J26" s="72"/>
-    </row>
-    <row r="27" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="69"/>
-      <c r="J27" s="72"/>
-    </row>
-    <row r="28" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="J28" s="69"/>
-    </row>
-    <row r="29" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="J29" s="72"/>
-    </row>
-    <row r="30" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="71"/>
-      <c r="J30" s="71"/>
-    </row>
-    <row r="31" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" s="71"/>
-    </row>
-    <row r="32" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="J32" s="71"/>
-    </row>
-    <row r="33" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="71"/>
-      <c r="J33" s="71"/>
-    </row>
-    <row r="34" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="67" t="s">
+      <c r="B32" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="J34" s="71"/>
-    </row>
-    <row r="35" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="74" t="s">
+      <c r="E32" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="69"/>
+    </row>
+    <row r="33" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="J35" s="71"/>
-    </row>
-    <row r="36" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
+      <c r="C33" s="61"/>
+      <c r="J33" s="69"/>
+    </row>
+    <row r="34" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="F36" s="71"/>
-      <c r="J36" s="71"/>
-    </row>
-    <row r="37" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="62"/>
-      <c r="J37" s="71"/>
+      <c r="C34" s="61"/>
+      <c r="F34" s="69"/>
+      <c r="J34" s="69"/>
+    </row>
+    <row r="35" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="61"/>
+      <c r="J35" s="69"/>
+    </row>
+    <row r="36" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="C36" s="43"/>
+      <c r="J36" s="32"/>
+    </row>
+    <row r="37" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="44"/>
+      <c r="C37" s="43"/>
+      <c r="F37" s="45"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="38" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="43"/>
-      <c r="J38" s="32"/>
+      <c r="J38" s="47"/>
     </row>
     <row r="39" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="44"/>
+      <c r="A39" s="24"/>
       <c r="C39" s="43"/>
-      <c r="F39" s="45"/>
-      <c r="J39" s="45"/>
+      <c r="J39" s="47"/>
     </row>
     <row r="40" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="46"/>
       <c r="C40" s="43"/>
-      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="43"/>
-      <c r="J41" s="47"/>
+      <c r="F41" s="24"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="43"/>
+      <c r="F42" s="36"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="43"/>
-      <c r="F43" s="24"/>
-      <c r="J43" s="24"/>
+      <c r="J43" s="46"/>
     </row>
     <row r="44" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="43"/>
-      <c r="F44" s="36"/>
-      <c r="J44" s="35"/>
+      <c r="F44" s="46"/>
+      <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="48"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="43"/>
+      <c r="F45" s="46"/>
       <c r="J45" s="46"/>
     </row>
     <row r="46" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="49"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="43"/>
-      <c r="F46" s="46"/>
       <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="43"/>
       <c r="F47" s="46"/>
       <c r="J47" s="46"/>
     </row>
     <row r="48" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="48"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="43"/>
+      <c r="F48" s="46"/>
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="43"/>
-      <c r="F49" s="46"/>
-      <c r="J49" s="46"/>
+      <c r="F49" s="24"/>
+      <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
-      <c r="B50" s="33"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="43"/>
-      <c r="F50" s="46"/>
-      <c r="J50" s="46"/>
+      <c r="F50" s="24"/>
+      <c r="J50" s="34"/>
     </row>
     <row r="51" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="43"/>
       <c r="F51" s="24"/>
-      <c r="J51" s="24"/>
+      <c r="J51" s="34"/>
     </row>
     <row r="52" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="43"/>
-      <c r="F52" s="24"/>
-      <c r="J52" s="34"/>
+      <c r="J52" s="50"/>
     </row>
     <row r="53" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
       <c r="C53" s="43"/>
-      <c r="F53" s="24"/>
-      <c r="J53" s="34"/>
+      <c r="J53" s="50"/>
     </row>
     <row r="54" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="44"/>
+      <c r="A54" s="24"/>
       <c r="C54" s="43"/>
       <c r="J54" s="50"/>
     </row>
     <row r="55" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="43"/>
-      <c r="J55" s="50"/>
+      <c r="F55" s="24"/>
+      <c r="J55" s="24"/>
     </row>
     <row r="56" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="43"/>
-      <c r="J56" s="50"/>
+      <c r="F56" s="24"/>
+      <c r="J56" s="34"/>
     </row>
     <row r="57" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="43"/>
       <c r="F57" s="24"/>
-      <c r="J57" s="24"/>
+      <c r="J57" s="34"/>
     </row>
     <row r="58" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
-      <c r="B58" s="37"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="43"/>
       <c r="F58" s="24"/>
       <c r="J58" s="34"/>
@@ -2339,21 +2309,19 @@
       <c r="A59" s="24"/>
       <c r="B59" s="37"/>
       <c r="C59" s="43"/>
-      <c r="F59" s="24"/>
       <c r="J59" s="34"/>
     </row>
     <row r="60" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
-      <c r="B60" s="31"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="43"/>
-      <c r="F60" s="24"/>
       <c r="J60" s="34"/>
     </row>
     <row r="61" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
-      <c r="B61" s="37"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="43"/>
-      <c r="J61" s="34"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
@@ -2363,92 +2331,86 @@
     </row>
     <row r="63" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
-      <c r="B63" s="31"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="43"/>
-      <c r="F63" s="24"/>
+      <c r="J63" s="34"/>
     </row>
     <row r="64" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
-      <c r="B64" s="37"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="43"/>
-      <c r="J64" s="34"/>
-    </row>
-    <row r="65" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="43"/>
-      <c r="J65" s="34"/>
-    </row>
-    <row r="66" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="43"/>
     </row>
-    <row r="67" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="43"/>
     </row>
-    <row r="68" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="43"/>
     </row>
-    <row r="69" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="43"/>
-    </row>
-    <row r="70" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="43"/>
+      <c r="C69" s="41"/>
+    </row>
+    <row r="70" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="43"/>
-    </row>
-    <row r="71" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="41"/>
-    </row>
-    <row r="72" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
-    </row>
-    <row r="73" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
+      <c r="B70" s="25"/>
+    </row>
+    <row r="71" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+    </row>
+    <row r="72" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="28"/>
+    </row>
+    <row r="73" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
       <c r="B73" s="28"/>
     </row>
-    <row r="74" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="28"/>
     </row>
-    <row r="75" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
+    <row r="75" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="28"/>
     </row>
-    <row r="76" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="28"/>
     </row>
-    <row r="77" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="28"/>
     </row>
-    <row r="78" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="28"/>
     </row>
-    <row r="79" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="28"/>
     </row>
-    <row r="80" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="28"/>
-    </row>
-    <row r="81" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="51"/>
+    </row>
+    <row r="81" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="28"/>
-    </row>
-    <row r="82" spans="2:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="52"/>
+    </row>
+    <row r="82" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="28"/>
-      <c r="C82" s="51"/>
     </row>
     <row r="83" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="28"/>
-      <c r="C83" s="52"/>
     </row>
     <row r="84" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
@@ -2541,188 +2503,192 @@
       <c r="B113" s="28"/>
     </row>
     <row r="114" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="28"/>
+      <c r="B114" s="24"/>
+      <c r="J114" s="24"/>
     </row>
     <row r="115" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="28"/>
     </row>
     <row r="116" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="24"/>
-      <c r="J116" s="24"/>
+      <c r="B116" s="28"/>
+      <c r="J116" s="27"/>
     </row>
     <row r="117" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
     </row>
-    <row r="118" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="28"/>
-      <c r="J118" s="27"/>
-    </row>
-    <row r="119" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="28"/>
+    <row r="122" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="J122" s="27"/>
+    </row>
+    <row r="123" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="28"/>
+      <c r="J123" s="27"/>
     </row>
     <row r="124" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="J124" s="27"/>
+      <c r="B124" s="31"/>
+      <c r="J124" s="25"/>
     </row>
     <row r="125" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="24"/>
-      <c r="B125" s="28"/>
+      <c r="B125" s="24"/>
       <c r="J125" s="27"/>
     </row>
     <row r="126" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
-      <c r="B126" s="31"/>
-      <c r="J126" s="25"/>
+      <c r="B126" s="28"/>
+      <c r="J126" s="27"/>
     </row>
     <row r="127" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="J127" s="27"/>
+      <c r="B127" s="25"/>
+      <c r="J127" s="25"/>
     </row>
     <row r="128" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
-      <c r="B128" s="28"/>
+      <c r="B128" s="24"/>
       <c r="J128" s="27"/>
     </row>
     <row r="129" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
-      <c r="J129" s="25"/>
+      <c r="B129" s="44"/>
+      <c r="J129" s="45"/>
     </row>
     <row r="130" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="J130" s="27"/>
+      <c r="J130" s="32"/>
     </row>
     <row r="131" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="44"/>
-      <c r="J131" s="45"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="28"/>
+      <c r="J131" s="32"/>
     </row>
     <row r="132" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J132" s="32"/>
+      <c r="B132" s="44"/>
+      <c r="J132" s="45"/>
     </row>
     <row r="133" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="24"/>
-      <c r="B133" s="28"/>
       <c r="J133" s="32"/>
     </row>
     <row r="134" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="44"/>
-      <c r="J134" s="45"/>
+      <c r="A134" s="24"/>
+      <c r="J134" s="32"/>
     </row>
     <row r="135" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J135" s="32"/>
+      <c r="B135" s="44"/>
+      <c r="J135" s="45"/>
     </row>
     <row r="136" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
       <c r="J136" s="32"/>
     </row>
     <row r="137" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="44"/>
-      <c r="J137" s="45"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="28"/>
+      <c r="J137" s="32"/>
     </row>
     <row r="138" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J138" s="32"/>
+      <c r="B138" s="44"/>
+      <c r="J138" s="45"/>
     </row>
     <row r="139" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="28"/>
-      <c r="J139" s="32"/>
+      <c r="B139" s="46"/>
+      <c r="J139" s="47"/>
     </row>
     <row r="140" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="44"/>
-      <c r="J140" s="45"/>
-    </row>
-    <row r="141" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="46"/>
-      <c r="J141" s="47"/>
-    </row>
-    <row r="142" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="28"/>
-      <c r="J142" s="47"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="28"/>
+      <c r="J140" s="47"/>
+    </row>
+    <row r="143" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="24"/>
+      <c r="B143" s="25"/>
+      <c r="J143" s="24"/>
+    </row>
+    <row r="144" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="34"/>
+      <c r="B144" s="35"/>
+      <c r="J144" s="35"/>
     </row>
     <row r="145" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="24"/>
-      <c r="B145" s="25"/>
-      <c r="J145" s="24"/>
+      <c r="B145" s="48"/>
+      <c r="J145" s="46"/>
     </row>
     <row r="146" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="34"/>
-      <c r="B146" s="35"/>
-      <c r="J146" s="35"/>
+      <c r="B146" s="49"/>
+      <c r="J146" s="46"/>
     </row>
     <row r="147" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="48"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="49"/>
       <c r="J147" s="46"/>
     </row>
     <row r="148" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="49"/>
+      <c r="B148" s="48"/>
       <c r="J148" s="46"/>
     </row>
     <row r="149" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="49"/>
+      <c r="B149" s="33"/>
       <c r="J149" s="46"/>
     </row>
     <row r="150" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="48"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="33"/>
       <c r="J150" s="46"/>
     </row>
     <row r="151" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="33"/>
-      <c r="J151" s="46"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="25"/>
+      <c r="J151" s="24"/>
     </row>
     <row r="152" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="24"/>
-      <c r="B152" s="33"/>
-      <c r="J152" s="46"/>
+      <c r="B152" s="24"/>
+      <c r="J152" s="34"/>
     </row>
     <row r="153" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
-      <c r="J153" s="24"/>
+      <c r="B153" s="28"/>
+      <c r="J153" s="34"/>
     </row>
     <row r="154" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="24"/>
-      <c r="B154" s="24"/>
-      <c r="J154" s="34"/>
+      <c r="B154" s="44"/>
+      <c r="J154" s="50"/>
     </row>
     <row r="155" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="24"/>
-      <c r="B155" s="28"/>
-      <c r="J155" s="34"/>
+      <c r="J155" s="50"/>
     </row>
     <row r="156" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="44"/>
+      <c r="A156" s="24"/>
       <c r="J156" s="50"/>
     </row>
     <row r="157" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J157" s="50"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="25"/>
+      <c r="J157" s="24"/>
     </row>
     <row r="158" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="24"/>
-      <c r="J158" s="50"/>
+      <c r="B158" s="37"/>
+      <c r="J158" s="34"/>
     </row>
     <row r="159" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="24"/>
-      <c r="B159" s="25"/>
-      <c r="J159" s="24"/>
+      <c r="B159" s="28"/>
+      <c r="J159" s="34"/>
     </row>
     <row r="160" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="24"/>
-      <c r="B160" s="37"/>
+      <c r="B160" s="31"/>
       <c r="J160" s="34"/>
     </row>
     <row r="161" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="24"/>
-      <c r="B161" s="28"/>
+      <c r="B161" s="37"/>
       <c r="J161" s="34"/>
     </row>
     <row r="162" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="24"/>
-      <c r="B162" s="31"/>
+      <c r="B162" s="28"/>
       <c r="J162" s="34"/>
     </row>
     <row r="163" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,154 +2698,150 @@
     </row>
     <row r="164" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="24"/>
-      <c r="B164" s="28"/>
+      <c r="B164" s="37"/>
       <c r="J164" s="34"/>
     </row>
     <row r="165" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="24"/>
-      <c r="B165" s="37"/>
+      <c r="B165" s="28"/>
       <c r="J165" s="34"/>
     </row>
     <row r="166" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="24"/>
-      <c r="B166" s="37"/>
-      <c r="J166" s="34"/>
-    </row>
-    <row r="167" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="24"/>
-      <c r="B167" s="28"/>
-      <c r="J167" s="34"/>
+      <c r="A166" s="38"/>
+      <c r="B166" s="39"/>
     </row>
     <row r="168" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="38"/>
-      <c r="B168" s="39"/>
+      <c r="B168" s="28"/>
+    </row>
+    <row r="169" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J169" s="34"/>
     </row>
     <row r="170" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="28"/>
-    </row>
-    <row r="171" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J171" s="34"/>
-    </row>
-    <row r="172" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J172" s="34"/>
+      <c r="J170" s="34"/>
+    </row>
+    <row r="174" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="28"/>
+    </row>
+    <row r="175" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J175" s="34"/>
     </row>
     <row r="176" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="28"/>
-    </row>
-    <row r="177" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J177" s="34"/>
-    </row>
-    <row r="178" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J178" s="34"/>
+      <c r="J176" s="34"/>
+    </row>
+    <row r="180" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="28"/>
+    </row>
+    <row r="181" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J181" s="34"/>
     </row>
     <row r="182" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="28"/>
-    </row>
-    <row r="183" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J183" s="34"/>
-    </row>
-    <row r="184" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J184" s="34"/>
-    </row>
-    <row r="187" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J182" s="34"/>
+    </row>
+    <row r="185" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="28"/>
+    </row>
+    <row r="187" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J187" s="34"/>
+    </row>
     <row r="188" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="28"/>
-    </row>
-    <row r="189" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J189" s="34"/>
-    </row>
-    <row r="190" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J190" s="34"/>
+      <c r="J188" s="34"/>
+    </row>
+    <row r="192" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="28"/>
+    </row>
+    <row r="193" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J193" s="34"/>
     </row>
     <row r="194" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="28"/>
-    </row>
-    <row r="195" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J195" s="34"/>
-    </row>
-    <row r="196" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J196" s="34"/>
-    </row>
-    <row r="199" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J194" s="34"/>
+    </row>
+    <row r="197" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="28"/>
+    </row>
+    <row r="199" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J199" s="34"/>
+    </row>
     <row r="200" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="28"/>
-    </row>
-    <row r="201" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J201" s="34"/>
-    </row>
-    <row r="202" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J202" s="34"/>
+      <c r="J200" s="34"/>
+    </row>
+    <row r="204" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="28"/>
+    </row>
+    <row r="205" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J205" s="34"/>
     </row>
     <row r="206" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="28"/>
-    </row>
-    <row r="207" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J207" s="34"/>
-    </row>
-    <row r="208" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J208" s="34"/>
-    </row>
-    <row r="211" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J206" s="34"/>
+    </row>
+    <row r="209" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="28"/>
+    </row>
+    <row r="211" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J211" s="34"/>
+    </row>
     <row r="212" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="28"/>
-    </row>
-    <row r="213" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J213" s="34"/>
-    </row>
-    <row r="214" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J214" s="34"/>
+      <c r="J212" s="34"/>
+    </row>
+    <row r="216" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="28"/>
+    </row>
+    <row r="217" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J217" s="34"/>
     </row>
     <row r="218" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="28"/>
-    </row>
-    <row r="219" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J219" s="34"/>
-    </row>
-    <row r="220" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J220" s="34"/>
-    </row>
-    <row r="223" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J218" s="34"/>
+    </row>
+    <row r="221" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="28"/>
+    </row>
+    <row r="223" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J223" s="34"/>
+    </row>
     <row r="224" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="28"/>
-    </row>
-    <row r="225" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J225" s="34"/>
-    </row>
-    <row r="226" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J226" s="34"/>
-    </row>
-    <row r="230" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="28"/>
-    </row>
-    <row r="231" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="28"/>
-    </row>
-    <row r="232" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="54"/>
-    </row>
-    <row r="233" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="54"/>
-    </row>
-    <row r="234" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J224" s="34"/>
+    </row>
+    <row r="228" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="28"/>
+    </row>
+    <row r="229" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="28"/>
+    </row>
+    <row r="230" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="54"/>
+    </row>
+    <row r="231" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="54"/>
+    </row>
+    <row r="232" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="28"/>
+    </row>
+    <row r="233" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="28"/>
+    </row>
+    <row r="234" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="28"/>
     </row>
-    <row r="235" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="28"/>
     </row>
-    <row r="236" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="28"/>
-    </row>
-    <row r="237" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="42"/>
+    </row>
+    <row r="237" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="28"/>
     </row>
-    <row r="238" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="42"/>
-    </row>
-    <row r="239" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="28"/>
-    </row>
-    <row r="240" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="28"/>
+    </row>
+    <row r="240" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="28"/>
+    </row>
+    <row r="241" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="28"/>
     </row>
     <row r="242" spans="2:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="28"/>
@@ -2932,20 +2894,24 @@
     <row r="258" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="28"/>
     </row>
-    <row r="259" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="28"/>
-    </row>
-    <row r="260" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="28"/>
+    <row r="261" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="55"/>
+      <c r="C261" s="56"/>
+      <c r="D261" s="56"/>
+      <c r="E261" s="56"/>
+      <c r="F261" s="53"/>
+      <c r="G261" s="32"/>
+      <c r="H261" s="53"/>
+    </row>
+    <row r="262" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="24"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="26"/>
     </row>
     <row r="263" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="55"/>
-      <c r="C263" s="56"/>
-      <c r="D263" s="56"/>
-      <c r="E263" s="56"/>
-      <c r="F263" s="53"/>
-      <c r="G263" s="32"/>
-      <c r="H263" s="53"/>
+      <c r="A263" s="24"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="26"/>
     </row>
     <row r="264" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="24"/>
@@ -2967,49 +2933,39 @@
       <c r="B267" s="25"/>
       <c r="C267" s="26"/>
     </row>
-    <row r="268" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="24"/>
-      <c r="B268" s="25"/>
-      <c r="C268" s="26"/>
-    </row>
-    <row r="269" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="24"/>
-      <c r="B269" s="25"/>
-      <c r="C269" s="26"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+  <conditionalFormatting sqref="B10">
     <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="B19">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B21">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="B20">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B22">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B15">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B17">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="B16">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B9">
     <cfRule type="duplicateValues" dxfId="2" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B14">
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5271,7 +5227,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5293,18 +5249,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5525,6 +5481,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5537,14 +5501,6 @@
     <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/questionnaires/RBDstandardized_questionnaireMDDW_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireMDDW_FR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E4E8D-2077-48EF-B03D-A6ABAB333BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F3320C-A889-4C05-B5A3-23E71B92D087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1576,7 +1576,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5249,18 +5249,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5481,14 +5481,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5501,6 +5493,14 @@
     <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/questionnaires/RBDstandardized_questionnaireMDDW_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireMDDW_FR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F3320C-A889-4C05-B5A3-23E71B92D087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1329E7-C110-4312-8363-98541F71F53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,9 +273,6 @@
     <t>Nom et prénom de la femme (No ${HHSize1549F_MDDW_calc})</t>
   </si>
   <si>
-    <t>Age en années révolues de ${MDDW_resp_age}</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>Francais</t>
+  </si>
+  <si>
+    <t>Age en années révolues de ${MDDW_name}</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1576,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1656,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>76</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1705,10 +1705,10 @@
         <v>75</v>
       </c>
       <c r="C7" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>77</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>78</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>58</v>
@@ -1725,10 +1725,10 @@
         <v>60</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1739,13 +1739,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1756,13 +1756,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,13 +1773,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="70"/>
       <c r="J11" s="67"/>
@@ -1792,13 +1792,13 @@
         <v>36</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="67"/>
       <c r="J12" s="70"/>
@@ -1811,13 +1811,13 @@
         <v>37</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="67"/>
       <c r="J13" s="70"/>
@@ -1830,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="66" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -1847,13 +1847,13 @@
         <v>32</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="70"/>
       <c r="J15" s="67"/>
@@ -1869,10 +1869,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="67"/>
       <c r="J16" s="70"/>
@@ -1885,13 +1885,13 @@
         <v>33</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="67"/>
       <c r="J17" s="70"/>
@@ -1904,13 +1904,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" s="69"/>
     </row>
@@ -1922,13 +1922,13 @@
         <v>27</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="69"/>
     </row>
@@ -1940,13 +1940,13 @@
         <v>29</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,13 +1957,13 @@
         <v>28</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1974,13 +1974,13 @@
         <v>30</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="66" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,13 +1991,13 @@
         <v>38</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="70"/>
       <c r="J23" s="67"/>
@@ -2010,13 +2010,13 @@
         <v>39</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="67"/>
       <c r="J24" s="70"/>
@@ -2029,13 +2029,13 @@
         <v>44</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="67"/>
       <c r="J25" s="70"/>
@@ -2067,7 +2067,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="70"/>
       <c r="J27" s="70"/>
@@ -2083,7 +2083,7 @@
         <v>62</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="69"/>
       <c r="J28" s="69"/>
@@ -2099,7 +2099,7 @@
         <v>63</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J29" s="69"/>
     </row>
@@ -2114,7 +2114,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J30" s="69"/>
     </row>
@@ -2129,7 +2129,7 @@
         <v>65</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="69"/>
       <c r="J31" s="69"/>
@@ -2145,7 +2145,7 @@
         <v>66</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32" s="69"/>
     </row>
@@ -5227,7 +5227,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5249,21 +5249,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5480,32 +5465,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5522,4 +5497,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>